--- a/com/src/test/testcase.xlsx
+++ b/com/src/test/testcase.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>接口地址</t>
   </si>
@@ -122,10 +122,6 @@
       </rPr>
       <t>message":"success"}</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"oo":"${getRandomMobileNum()}"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -227,7 +223,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"oo":"$tabooTest","jsii":"json"}</t>
+    <t>{"oo":"${getRandomMobileNum()}"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.baidu.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"kv":"json","wd":"${getRandomMobileNum()}"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -729,7 +737,7 @@
     </row>
     <row r="2" spans="1:14" ht="150.94999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>15</v>
@@ -738,11 +746,11 @@
         <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="3"/>
       <c r="G2" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>19</v>
@@ -754,42 +762,42 @@
         <v>12</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" ht="150.94999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="3"/>
       <c r="G3" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="3"/>

--- a/com/src/test/testcase.xlsx
+++ b/com/src/test/testcase.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>接口地址</t>
   </si>
@@ -73,14 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/open/api/lunar/json.shtml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>请求接口测试1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -89,8 +81,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>{"</t>
+    <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/app/verificationCode/get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/app/member/id/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"phoneNumber":"${</t>
     </r>
     <r>
       <rPr>
@@ -98,14 +106,27 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>$.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>status":200,"</t>
+      <t>getFakePhoneNum()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>}"}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"encnm":"key_name","language":"SIMPLIFIED_CHINESE","platform":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>"</t>
     </r>
     <r>
       <rPr>
@@ -113,129 +134,94 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>$.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>message":"success"}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"tabooTest":["data","taboo"]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.sojson.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"user-agent": "Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/70.0.3538.102 Safari/537.36"}</t>
+      <t>APP_IPHONE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>","</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>loginType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:"PHONE_VERIFICATION_CODE","encpw":"","serviceZone":"CHINA('CN')"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://rap.dongmancorp.cn/mockjs/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"$.message.result.message</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"$.message.service":"com.naver.dongman"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>}</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{'$.message': '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>频繁调用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(3s/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>次</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，请申请，请联系</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>QQ8446666</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>', '$.status': 304}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"oo":"${getRandomMobileNum()}"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.baidu.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"kv":"json","wd":"${getRandomMobileNum()}"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -316,7 +302,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -328,6 +314,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -681,7 +668,7 @@
     <col min="2" max="2" width="20.125" customWidth="1"/>
     <col min="5" max="5" width="10" style="1" customWidth="1"/>
     <col min="6" max="6" width="3.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="31.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="42.375" style="1" customWidth="1"/>
     <col min="8" max="8" width="57.375" style="1" customWidth="1"/>
     <col min="9" max="9" width="34.625" style="1" customWidth="1"/>
     <col min="10" max="10" width="5.875" style="1" customWidth="1"/>
@@ -737,67 +724,61 @@
     </row>
     <row r="2" spans="1:14" ht="150.94999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="G2" s="7"/>
+      <c r="H2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="G2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="J2" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="K2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="4"/>
       <c r="M2" s="3"/>
       <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" ht="150.94999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="G3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="3"/>

--- a/com/src/test/testcase.xlsx
+++ b/com/src/test/testcase.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>接口地址</t>
   </si>
@@ -38,18 +38,12 @@
     <t>headers</t>
   </si>
   <si>
-    <t>json</t>
-  </si>
-  <si>
     <t>data</t>
   </si>
   <si>
     <t>params</t>
   </si>
   <si>
-    <t>resp_code</t>
-  </si>
-  <si>
     <t>scene_desc</t>
   </si>
   <si>
@@ -73,32 +67,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>请求接口测试1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求接口测试2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/app/verificationCode/get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/app/member/id/login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
-      <t>{"phoneNumber":"${</t>
+      <t>{"$.message.service":"com.naver.dongman"</t>
     </r>
     <r>
       <rPr>
@@ -106,27 +76,49 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>getFakePhoneNum()</t>
+      <t>}</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkpoints</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"${getLoginForms()}"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://qaptsapis.dongmanmanhua.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://qaptsapis.dongmanmanhua.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Content-Type":"application/x-www-form-urlencoded; charset=UTF-8","HOST":"qaptsapis.dongmanmanhua.cn","Accept-Language":"zh-CN","x-forwarded-for":"${getIP()}"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/app/member/id/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>}"}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{"encnm":"key_name","language":"SIMPLIFIED_CHINESE","platform":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>"</t>
+      <t>n</t>
     </r>
     <r>
       <rPr>
@@ -134,14 +126,49 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>APP_IPHONE</t>
+      <t>o</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"$.message.result.ses":"NEO_SES"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Content-Type":"application/x-www-form-urlencoded; charset=UTF-8","HOST":"qaptsapis.dongmanmanhua.cn","Accept-Language":"zh-CN","x-forwarded-for":"${getIP()}","NEO_SES":"$NEO_SES"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/app/favorite/totalList2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"v":4,"platform": "APP_ANDROID","serviceZone": "CHINA","language": "zh-hans"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取关注列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cookie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"NEO_SES":"${getRunningINI(NEO_SES)}"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>","</t>
+      <t>{"$.message.service":"com.naver.dongman"</t>
     </r>
     <r>
       <rPr>
@@ -149,79 +176,8 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>loginType</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:"PHONE_VERIFICATION_CODE","encpw":"","serviceZone":"CHINA('CN')"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
       <t>}</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://rap.dongmancorp.cn/mockjs/3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{"$.message.result.message</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{"$.message.service":"com.naver.dongman"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -248,6 +204,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -660,20 +617,22 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="24.625" customWidth="1"/>
     <col min="2" max="2" width="20.125" customWidth="1"/>
-    <col min="5" max="5" width="10" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.625" customWidth="1"/>
+    <col min="5" max="5" width="42.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="3.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="42.375" style="1" customWidth="1"/>
     <col min="8" max="8" width="57.375" style="1" customWidth="1"/>
     <col min="9" max="9" width="34.625" style="1" customWidth="1"/>
     <col min="10" max="10" width="5.875" style="1" customWidth="1"/>
     <col min="11" max="11" width="6.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="20.25" customWidth="1"/>
+    <col min="12" max="12" width="37.5" customWidth="1"/>
     <col min="13" max="13" width="3.625" style="1" customWidth="1"/>
     <col min="14" max="14" width="8.125" style="1" customWidth="1"/>
   </cols>
@@ -692,93 +651,103 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="N1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150.94999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="4"/>
       <c r="M2" s="3"/>
       <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" ht="150.94999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="E3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H3" s="4" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>26</v>
+      <c r="K3" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="3"/>
